--- a/xlsx/美国州份_intext.xlsx
+++ b/xlsx/美国州份_intext.xlsx
@@ -15,2169 +15,2133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="709">
   <si>
     <t>美国州份</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Commonwealth_(U.S._state)</t>
+  </si>
+  <si>
+    <t>en-Commonwealth (U.S. state)</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6%E4%B8%8B%E7%9A%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>联邦制下的州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_governments_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-State governments of the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>美国领地</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Commonwealth_(U.S._insular_area)</t>
+  </si>
+  <si>
+    <t>en-Commonwealth (U.S. insular area)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%82%A6_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>自由邦 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_federally_recognized_tribes</t>
+  </si>
+  <si>
+    <t>en-List of federally recognized tribes</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Borough_(United_States)</t>
+  </si>
+  <si>
+    <t>en-Borough (United States)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Consolidated_city-county</t>
+  </si>
+  <si>
+    <t>en-Consolidated city-county</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Independent_city_(United_States)</t>
+  </si>
+  <si>
+    <t>en-Independent city (United States)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>路易斯安那州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>阿拉斯加州行政区划</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unorganized_Borough,_Alaska</t>
+  </si>
+  <si>
+    <t>en-Unorganized Borough, Alaska</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_recognized_tribes_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-State recognized tribes in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>按人口排列的美国城市列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_towns_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-List of towns in the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_places_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-List of places in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E5%8D%80_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>镇区 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Consolidated_city-township</t>
+  </si>
+  <si>
+    <t>en-Consolidated city-township</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chapter_house_(Navajo_Nation)</t>
+  </si>
+  <si>
+    <t>en-Chapter house (Navajo Nation)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E9%82%BB%E7%A4%BE%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>近邻社区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美属萨摩亚行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>关岛行政区划</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Districts_and_sub-districts_of_the_United_States_Virgin_Islands</t>
+  </si>
+  <si>
+    <t>en-Districts and sub-districts of the United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Municipalities_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Municipalities of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Protected_areas_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Protected areas of the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conservation_district</t>
+  </si>
+  <si>
+    <t>en-Conservation district</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
+  </si>
+  <si>
+    <t>国家纪念区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
+  </si>
+  <si>
+    <t>en-List of United States congressional districts</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88%E7%AE%A1%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>公寓大厦管理委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%94%E5%90%88%E5%8D%8F%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>自由联合协定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%9F%BA%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>军事基地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>非建制地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%95%87</t>
+  </si>
+  <si>
+    <t>鬼镇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%88%92%E5%88%86</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政划分</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>主权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%85%A5%E5%A2%83%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>出入境自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E9%87%8B</t>
+  </si>
+  <si>
+    <t>假释</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E8%AD%B7%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>监护权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国州宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%A6%E5%AF%9F</t>
+  </si>
+  <si>
+    <t>美国警察</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>美国医疗系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD</t>
+  </si>
+  <si>
+    <t>基础设施</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美国宪法第一条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%B5%E5%8E%9F%E5%89%87</t>
+  </si>
+  <si>
+    <t>合并原则</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/states%27_rights</t>
+  </si>
+  <si>
+    <t>en-states' rights</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>南北战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>阿拉斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%88%86%E8%A3%82</t>
+  </si>
+  <si>
+    <t>国家分裂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
+  </si>
+  <si>
+    <t>违宪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康涅狄格州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗得岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>得克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康星州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十四条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%88%E5%B0%94%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>康奈尔法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%88%E5%B9%B6%E5%BB%BA%E5%88%B6%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国合并建制领土</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>美国殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国会员国列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>阿根廷行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>安地卡及巴布达行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>巴巴多斯行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>巴哈马行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>巴拉圭行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>巴拿马行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>巴西行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>秘鲁行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>玻利维亚行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>伯利兹行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>多米尼加共和国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>多米尼克行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>厄瓜多尔行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>哥伦比亚行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>哥斯达黎加行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>格林纳达行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>圭亚那行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>古巴行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>海地行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>洪都拉斯行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>加拿大行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>墨西哥行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>尼加拉瓜行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>萨尔瓦多行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9F%BA%E8%8C%A8%E5%92%8C%E5%B0%BC%E7%BB%B4%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>圣基茨和尼维斯行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>圣卢西亚行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>苏里南行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>特立尼达和多巴哥行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>危地马拉行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>委内瑞拉行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>乌拉圭行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>牙买加行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>智利行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>阿鲁巴行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>百慕大行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>格陵兰行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8F%90%E5%B0%BC%E5%85%8B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>马提尼克行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>圣皮埃尔和密克隆行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份和领地列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>依总面积排列的美国州别列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-List of governors' residences in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州州议会大厦列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州最大城市列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
+  </si>
+  <si>
+    <t>美国各州名称词源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州国内生产总值列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人均生产总额列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份邮政缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%92%8C%E9%A2%86%E5%9C%9F%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州和领土格言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Commonwealth_(U.S._state)</t>
-  </si>
-  <si>
-    <t>en-Commonwealth (U.S. state)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6%E4%B8%8B%E7%9A%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>联邦制下的州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美利堅合眾國</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_governments_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-State governments of the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
-  </si>
-  <si>
-    <t>華盛頓哥倫比亞特區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>美国领地</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Commonwealth_(U.S._insular_area)</t>
-  </si>
-  <si>
-    <t>en-Commonwealth (U.S. insular area)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%82%A6_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>自由邦 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_federally_recognized_tribes</t>
-  </si>
-  <si>
-    <t>en-List of federally recognized tribes</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Borough_(United_States)</t>
-  </si>
-  <si>
-    <t>en-Borough (United States)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Consolidated_city-county</t>
-  </si>
-  <si>
-    <t>en-Consolidated city-county</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Independent_city_(United_States)</t>
-  </si>
-  <si>
-    <t>en-Independent city (United States)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>路易斯安那州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>阿拉斯加州行政区划</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unorganized_Borough,_Alaska</t>
-  </si>
-  <si>
-    <t>en-Unorganized Borough, Alaska</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_recognized_tribes_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-State recognized tribes in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>按人口排列的美國城市列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_towns_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-List of towns in the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_places_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-List of places in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E5%8D%80_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>鎮區 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Consolidated_city-township</t>
-  </si>
-  <si>
-    <t>en-Consolidated city-township</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chapter_house_(Navajo_Nation)</t>
-  </si>
-  <si>
-    <t>en-Chapter house (Navajo Nation)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E9%82%BB%E7%A4%BE%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>近邻社区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美属萨摩亚行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>关岛行政区划</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Districts_and_sub-districts_of_the_United_States_Virgin_Islands</t>
-  </si>
-  <si>
-    <t>en-Districts and sub-districts of the United States Virgin Islands</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Municipalities_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Municipalities of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Protected_areas_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Protected areas of the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conservation_district</t>
-  </si>
-  <si>
-    <t>en-Conservation district</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
-  </si>
-  <si>
-    <t>國家紀念區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
-  </si>
-  <si>
-    <t>en-List of United States congressional districts</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88%E7%AE%A1%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>公寓大廈管理委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%94%E5%90%88%E5%8D%8F%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>自由联合协定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%9F%BA%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>军事基地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>非建制地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%95%87</t>
-  </si>
-  <si>
-    <t>鬼镇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%88%92%E5%88%86</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政划分</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>主權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%85%A5%E5%A2%83%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>出入境自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E9%87%8B</t>
-  </si>
-  <si>
-    <t>假釋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E8%AD%B7%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>監護權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国州宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%A6%E5%AF%9F</t>
-  </si>
-  <si>
-    <t>美國警察</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>美國醫療系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD</t>
-  </si>
-  <si>
-    <t>基础设施</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美国宪法第一条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%B5%E5%8E%9F%E5%89%87</t>
-  </si>
-  <si>
-    <t>合併原則</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/states%27_rights</t>
-  </si>
-  <si>
-    <t>en-states' rights</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>南北战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>阿拉斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
-  </si>
-  <si>
-    <t>夏威夷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%88%86%E8%A3%82</t>
-  </si>
-  <si>
-    <t>国家分裂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>南北戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
-  </si>
-  <si>
-    <t>違憲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國州份列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科罗拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康涅狄格州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马萨诸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼苏达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密苏里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>罗得岛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>得克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康星州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十四条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%88%E5%B0%94%E6%B3%95%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>康奈尔法学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%88%E5%B9%B6%E5%BB%BA%E5%88%B6%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国合并建制领土</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>美國殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>阿根廷行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>安地卡及巴布達行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>巴巴多斯行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>巴哈马行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>巴拉圭行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>巴拿马行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>巴西行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>秘鲁行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>玻利维亚行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>伯利兹行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>多米尼加共和国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>多米尼克行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>厄瓜多尔行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>哥伦比亚行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>哥斯达黎加行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>格林纳达行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>圭亚那行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>古巴行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>海地行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>洪都拉斯行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>加拿大行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>墨西哥行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>尼加拉瓜行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>萨尔瓦多行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9F%BA%E8%8C%A8%E5%92%8C%E5%B0%BC%E7%BB%B4%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>圣卢西亚行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>苏里南行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>危地马拉行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>委内瑞拉行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>乌拉圭行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>牙买加行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>智利行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>阿鲁巴行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>百慕大行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>格陵兰行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8F%90%E5%B0%BC%E5%85%8B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>马提尼克行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國州份和領地列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>依總面積排列的美國州別列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州首府列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-List of governors' residences in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州州議會大廈列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州最大城市列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
-  </si>
-  <si>
-    <t>美國各州名稱詞源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州国内生产总值列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州人均生產總額列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國州份郵政縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州時區列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%92%8C%E9%A2%86%E5%9C%9F%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州和领土格言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I407"/>
+  <dimension ref="A1:I408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4462,7 +4426,7 @@
         <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4488,10 +4452,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4517,10 +4481,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4546,10 +4510,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4575,10 +4539,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4604,10 +4568,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4633,10 +4597,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4662,10 +4626,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4691,10 +4655,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4720,10 +4684,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4749,10 +4713,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4778,10 +4742,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4807,10 +4771,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4836,10 +4800,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4865,10 +4829,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4894,10 +4858,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4923,10 +4887,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4952,10 +4916,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4981,10 +4945,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5010,10 +4974,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5039,10 +5003,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5068,10 +5032,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5097,10 +5061,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5126,10 +5090,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5155,10 +5119,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5184,10 +5148,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5213,10 +5177,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5242,10 +5206,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5271,10 +5235,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5300,10 +5264,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5329,10 +5293,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5358,10 +5322,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5387,10 +5351,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5416,10 +5380,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5445,10 +5409,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5474,10 +5438,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5503,10 +5467,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5532,10 +5496,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5561,10 +5525,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5590,10 +5554,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5619,10 +5583,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5648,10 +5612,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5677,10 +5641,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5706,10 +5670,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5735,10 +5699,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5764,10 +5728,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5793,10 +5757,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5822,10 +5786,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5851,10 +5815,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5880,10 +5844,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5909,10 +5873,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5938,10 +5902,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5967,10 +5931,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5996,10 +5960,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6025,10 +5989,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6054,10 +6018,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6083,10 +6047,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6112,10 +6076,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6141,10 +6105,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6170,10 +6134,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6199,10 +6163,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6228,10 +6192,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6257,10 +6221,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6286,10 +6250,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>134</v>
+      </c>
+      <c r="F130" t="s">
         <v>135</v>
-      </c>
-      <c r="F130" t="s">
-        <v>136</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6315,10 +6279,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6344,10 +6308,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>140</v>
+      </c>
+      <c r="F132" t="s">
         <v>141</v>
-      </c>
-      <c r="F132" t="s">
-        <v>142</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6373,10 +6337,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>142</v>
+      </c>
+      <c r="F133" t="s">
         <v>143</v>
-      </c>
-      <c r="F133" t="s">
-        <v>144</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6402,10 +6366,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6431,10 +6395,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6460,10 +6424,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>148</v>
+      </c>
+      <c r="F136" t="s">
         <v>149</v>
-      </c>
-      <c r="F136" t="s">
-        <v>150</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6489,10 +6453,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>150</v>
+      </c>
+      <c r="F137" t="s">
         <v>151</v>
-      </c>
-      <c r="F137" t="s">
-        <v>152</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -6518,10 +6482,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>152</v>
+      </c>
+      <c r="F138" t="s">
         <v>153</v>
-      </c>
-      <c r="F138" t="s">
-        <v>154</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6547,10 +6511,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>158</v>
+      </c>
+      <c r="F139" t="s">
         <v>159</v>
-      </c>
-      <c r="F139" t="s">
-        <v>160</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6576,10 +6540,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>160</v>
+      </c>
+      <c r="F140" t="s">
         <v>161</v>
-      </c>
-      <c r="F140" t="s">
-        <v>162</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6605,10 +6569,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>162</v>
+      </c>
+      <c r="F141" t="s">
         <v>163</v>
-      </c>
-      <c r="F141" t="s">
-        <v>164</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6634,10 +6598,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>156</v>
+      </c>
+      <c r="F142" t="s">
         <v>157</v>
-      </c>
-      <c r="F142" t="s">
-        <v>158</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6663,10 +6627,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6692,10 +6656,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>166</v>
+      </c>
+      <c r="F144" t="s">
         <v>167</v>
-      </c>
-      <c r="F144" t="s">
-        <v>168</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -6721,10 +6685,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>168</v>
+      </c>
+      <c r="F145" t="s">
         <v>169</v>
-      </c>
-      <c r="F145" t="s">
-        <v>170</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6750,10 +6714,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>170</v>
+      </c>
+      <c r="F146" t="s">
         <v>171</v>
-      </c>
-      <c r="F146" t="s">
-        <v>172</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6779,10 +6743,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>172</v>
+      </c>
+      <c r="F147" t="s">
         <v>173</v>
-      </c>
-      <c r="F147" t="s">
-        <v>174</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6808,10 +6772,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F148" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6837,10 +6801,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F149" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6866,10 +6830,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F150" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6895,10 +6859,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>180</v>
+      </c>
+      <c r="F151" t="s">
         <v>181</v>
-      </c>
-      <c r="F151" t="s">
-        <v>182</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -6924,10 +6888,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F152" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6953,10 +6917,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>184</v>
+      </c>
+      <c r="F153" t="s">
         <v>185</v>
-      </c>
-      <c r="F153" t="s">
-        <v>186</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6982,10 +6946,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F154" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7011,10 +6975,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>188</v>
+      </c>
+      <c r="F155" t="s">
         <v>189</v>
-      </c>
-      <c r="F155" t="s">
-        <v>190</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7040,10 +7004,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>190</v>
+      </c>
+      <c r="F156" t="s">
         <v>191</v>
-      </c>
-      <c r="F156" t="s">
-        <v>192</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7069,10 +7033,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>192</v>
+      </c>
+      <c r="F157" t="s">
         <v>193</v>
-      </c>
-      <c r="F157" t="s">
-        <v>194</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7098,10 +7062,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>194</v>
+      </c>
+      <c r="F158" t="s">
         <v>195</v>
-      </c>
-      <c r="F158" t="s">
-        <v>196</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7127,10 +7091,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>196</v>
+      </c>
+      <c r="F159" t="s">
         <v>197</v>
-      </c>
-      <c r="F159" t="s">
-        <v>198</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7156,10 +7120,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>198</v>
+      </c>
+      <c r="F160" t="s">
         <v>199</v>
-      </c>
-      <c r="F160" t="s">
-        <v>200</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7185,10 +7149,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F161" t="s">
         <v>201</v>
-      </c>
-      <c r="F161" t="s">
-        <v>202</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7214,10 +7178,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>202</v>
+      </c>
+      <c r="F162" t="s">
         <v>203</v>
-      </c>
-      <c r="F162" t="s">
-        <v>204</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7243,10 +7207,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>204</v>
+      </c>
+      <c r="F163" t="s">
         <v>205</v>
-      </c>
-      <c r="F163" t="s">
-        <v>206</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7272,10 +7236,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>206</v>
+      </c>
+      <c r="F164" t="s">
         <v>207</v>
-      </c>
-      <c r="F164" t="s">
-        <v>208</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7301,10 +7265,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>208</v>
+      </c>
+      <c r="F165" t="s">
         <v>209</v>
-      </c>
-      <c r="F165" t="s">
-        <v>210</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7330,10 +7294,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F166" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7359,10 +7323,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>212</v>
+      </c>
+      <c r="F167" t="s">
         <v>213</v>
-      </c>
-      <c r="F167" t="s">
-        <v>214</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7388,10 +7352,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>214</v>
+      </c>
+      <c r="F168" t="s">
         <v>215</v>
-      </c>
-      <c r="F168" t="s">
-        <v>216</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7417,10 +7381,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>216</v>
+      </c>
+      <c r="F169" t="s">
         <v>217</v>
-      </c>
-      <c r="F169" t="s">
-        <v>218</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7446,10 +7410,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F170" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7475,10 +7439,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>220</v>
+      </c>
+      <c r="F171" t="s">
         <v>221</v>
-      </c>
-      <c r="F171" t="s">
-        <v>222</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7504,10 +7468,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>222</v>
+      </c>
+      <c r="F172" t="s">
         <v>223</v>
-      </c>
-      <c r="F172" t="s">
-        <v>224</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7533,10 +7497,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>224</v>
+      </c>
+      <c r="F173" t="s">
         <v>225</v>
-      </c>
-      <c r="F173" t="s">
-        <v>226</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7562,10 +7526,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>226</v>
+      </c>
+      <c r="F174" t="s">
         <v>227</v>
-      </c>
-      <c r="F174" t="s">
-        <v>228</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7591,10 +7555,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F175" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7620,10 +7584,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F176" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7649,10 +7613,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>232</v>
+      </c>
+      <c r="F177" t="s">
         <v>233</v>
-      </c>
-      <c r="F177" t="s">
-        <v>234</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7678,10 +7642,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F178" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7707,10 +7671,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F179" t="s">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7736,10 +7700,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F180" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7765,10 +7729,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F181" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7794,10 +7758,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F182" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7823,10 +7787,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F183" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7852,10 +7816,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F184" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -7881,10 +7845,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F185" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7910,10 +7874,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F186" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7939,10 +7903,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F187" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7968,10 +7932,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F188" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7997,10 +7961,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F189" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8026,10 +7990,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F190" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8055,10 +8019,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F191" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8084,10 +8048,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F192" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8113,10 +8077,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F193" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8142,10 +8106,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F194" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8171,10 +8135,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F195" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8200,10 +8164,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F196" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8229,10 +8193,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F197" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8258,10 +8222,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F198" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8287,10 +8251,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F199" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8316,10 +8280,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F200" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8345,10 +8309,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F201" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8374,10 +8338,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F202" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8403,10 +8367,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F203" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8432,10 +8396,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F204" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8461,10 +8425,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F205" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8490,10 +8454,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F206" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8519,10 +8483,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F207" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8548,10 +8512,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F208" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8577,10 +8541,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F209" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8606,10 +8570,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F210" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8635,10 +8599,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F211" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8664,10 +8628,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F212" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8693,10 +8657,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F213" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8722,10 +8686,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F214" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8751,10 +8715,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F215" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8780,10 +8744,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F216" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8809,10 +8773,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F217" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8838,10 +8802,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F218" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8867,10 +8831,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F219" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8896,10 +8860,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F220" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8925,10 +8889,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F221" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8983,10 +8947,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F223" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9012,10 +8976,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F224" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9041,10 +9005,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F225" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9070,10 +9034,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F226" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9099,10 +9063,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F227" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9128,10 +9092,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F228" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9157,10 +9121,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F229" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9186,10 +9150,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F230" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9215,10 +9179,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F231" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9244,10 +9208,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F232" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9273,10 +9237,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F233" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9302,10 +9266,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F234" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9331,10 +9295,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F235" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9360,10 +9324,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F236" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9389,10 +9353,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F237" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9418,10 +9382,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F238" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9447,10 +9411,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F239" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9476,10 +9440,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F240" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9505,10 +9469,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F241" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9534,13 +9498,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F242" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G242" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -9563,13 +9527,13 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F243" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -9592,13 +9556,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F244" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9621,10 +9585,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F245" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9650,10 +9614,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F246" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9679,10 +9643,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F247" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9708,10 +9672,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F248" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9737,10 +9701,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F249" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9766,10 +9730,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F250" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9795,10 +9759,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F251" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9824,13 +9788,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F252" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9853,13 +9817,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F253" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G253" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9882,13 +9846,13 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F254" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -9911,10 +9875,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F255" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9940,13 +9904,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F256" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9969,13 +9933,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F257" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -9998,10 +9962,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F258" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10027,13 +9991,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F259" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10056,13 +10020,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F260" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10085,10 +10049,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F261" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10114,10 +10078,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F262" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10143,10 +10107,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F263" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10172,10 +10136,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F264" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10201,10 +10165,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>451</v>
+        <v>247</v>
       </c>
       <c r="F265" t="s">
-        <v>452</v>
+        <v>248</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10230,10 +10194,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>249</v>
+        <v>442</v>
       </c>
       <c r="F266" t="s">
-        <v>250</v>
+        <v>443</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10259,10 +10223,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F267" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10288,10 +10252,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F268" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10317,10 +10281,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F269" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10346,10 +10310,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F270" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10375,10 +10339,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F271" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10404,10 +10368,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F272" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10433,10 +10397,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F273" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10462,10 +10426,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F274" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10491,10 +10455,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F275" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10520,13 +10484,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F276" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -10549,10 +10513,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F277" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10578,13 +10542,13 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F278" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10607,13 +10571,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F279" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -10636,13 +10600,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F280" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10665,10 +10629,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F281" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10694,10 +10658,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F282" t="s">
-        <v>484</v>
+        <v>88</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10723,10 +10687,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F283" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10752,13 +10716,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F284" t="s">
-        <v>488</v>
+        <v>96</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -10781,13 +10745,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F285" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -10810,10 +10774,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F286" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10839,10 +10803,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F287" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10868,13 +10832,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F288" t="s">
-        <v>496</v>
+        <v>120</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -10897,13 +10861,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F289" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -10926,10 +10890,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F290" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10955,10 +10919,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F291" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10984,10 +10948,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F292" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11013,13 +10977,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F293" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11042,13 +11006,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F294" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11071,10 +11035,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F295" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11100,10 +11064,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F296" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11129,10 +11093,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F297" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11158,13 +11122,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>515</v>
+        <v>128</v>
       </c>
       <c r="F298" t="s">
-        <v>516</v>
+        <v>129</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11187,13 +11151,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>129</v>
+        <v>503</v>
       </c>
       <c r="F299" t="s">
-        <v>130</v>
+        <v>504</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11216,10 +11180,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F300" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11245,10 +11209,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F301" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11274,10 +11238,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F302" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11303,10 +11267,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F303" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11332,13 +11296,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F304" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11361,13 +11325,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F305" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11390,10 +11354,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F306" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11419,10 +11383,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F307" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11448,10 +11412,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F308" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11477,10 +11441,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F309" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11506,10 +11470,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F310" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11535,10 +11499,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F311" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11564,10 +11528,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F312" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11593,10 +11557,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F313" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11622,13 +11586,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F314" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -11651,13 +11615,13 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F315" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -11680,10 +11644,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F316" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11709,13 +11673,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F317" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -11738,13 +11702,13 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F318" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G318" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -11767,13 +11731,13 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F319" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -11796,13 +11760,13 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>557</v>
+        <v>11</v>
       </c>
       <c r="F320" t="s">
-        <v>558</v>
+        <v>12</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -11825,13 +11789,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>11</v>
+        <v>545</v>
       </c>
       <c r="F321" t="s">
-        <v>12</v>
+        <v>546</v>
       </c>
       <c r="G321" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -11854,10 +11818,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F322" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11883,10 +11847,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F323" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11912,10 +11876,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F324" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11941,13 +11905,13 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>565</v>
+        <v>240</v>
       </c>
       <c r="F325" t="s">
-        <v>566</v>
+        <v>241</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -11970,13 +11934,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>241</v>
+        <v>553</v>
       </c>
       <c r="F326" t="s">
-        <v>242</v>
+        <v>554</v>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -11999,10 +11963,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F327" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12028,10 +11992,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F328" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12057,10 +12021,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F329" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12086,13 +12050,13 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F330" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12115,13 +12079,13 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F331" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G331" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12144,10 +12108,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F332" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12173,13 +12137,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>579</v>
+        <v>238</v>
       </c>
       <c r="F333" t="s">
-        <v>580</v>
+        <v>239</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12202,13 +12166,13 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>239</v>
+        <v>567</v>
       </c>
       <c r="F334" t="s">
-        <v>240</v>
+        <v>568</v>
       </c>
       <c r="G334" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12231,10 +12195,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F335" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12260,13 +12224,13 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F336" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12289,13 +12253,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F337" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12318,10 +12282,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F338" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12347,10 +12311,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F339" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12376,10 +12340,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F340" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12405,10 +12369,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F341" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12434,10 +12398,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F342" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12463,10 +12427,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F343" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12492,10 +12456,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F344" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12521,13 +12485,13 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>601</v>
+        <v>249</v>
       </c>
       <c r="F345" t="s">
-        <v>602</v>
+        <v>250</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -12550,13 +12514,13 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>251</v>
+        <v>589</v>
       </c>
       <c r="F346" t="s">
-        <v>252</v>
+        <v>590</v>
       </c>
       <c r="G346" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -12579,10 +12543,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F347" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12608,10 +12572,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F348" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12637,10 +12601,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F349" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12666,10 +12630,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F350" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12695,10 +12659,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F351" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12724,10 +12688,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F352" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12753,10 +12717,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F353" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12782,13 +12746,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>617</v>
+        <v>107</v>
       </c>
       <c r="F354" t="s">
-        <v>618</v>
+        <v>108</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -12811,13 +12775,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>107</v>
+        <v>605</v>
       </c>
       <c r="F355" t="s">
-        <v>108</v>
+        <v>606</v>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -12840,10 +12804,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F356" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12869,10 +12833,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F357" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12898,10 +12862,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F358" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12927,10 +12891,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F359" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12956,10 +12920,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F360" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12985,13 +12949,13 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F361" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -13014,13 +12978,13 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F362" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -13043,13 +13007,13 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>633</v>
+        <v>103</v>
       </c>
       <c r="F363" t="s">
-        <v>634</v>
+        <v>104</v>
       </c>
       <c r="G363" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -13072,13 +13036,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="F364" t="s">
-        <v>104</v>
+        <v>622</v>
       </c>
       <c r="G364" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13101,10 +13065,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F365" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13130,10 +13094,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F366" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13159,10 +13123,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F367" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13188,10 +13152,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F368" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13217,13 +13181,13 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F369" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G369" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13246,13 +13210,13 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F370" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G370" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -13275,13 +13239,13 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F371" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G371" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -13304,10 +13268,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F372" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13333,10 +13297,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F373" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13362,10 +13326,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F374" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13391,10 +13355,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="F375" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13420,10 +13384,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F376" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13449,10 +13413,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F377" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13478,10 +13442,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F378" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13507,13 +13471,13 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F379" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -13536,13 +13500,13 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F380" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -13565,10 +13529,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F381" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13594,10 +13558,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F382" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13623,10 +13587,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F383" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13652,10 +13616,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F384" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13681,10 +13645,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F385" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13710,10 +13674,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F386" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13739,13 +13703,13 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F387" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G387" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -13768,13 +13732,13 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F388" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G388" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -13797,10 +13761,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F389" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13826,10 +13790,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F390" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -13855,10 +13819,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F391" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -13884,10 +13848,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="F392" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -13913,10 +13877,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F393" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -13942,10 +13906,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="F394" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -13971,13 +13935,13 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="F395" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="G395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -14000,13 +13964,13 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="F396" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14029,10 +13993,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F397" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14058,10 +14022,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="F398" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14087,10 +14051,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="F399" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14116,10 +14080,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="F400" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14145,10 +14109,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F401" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14174,10 +14138,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="F402" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14203,13 +14167,13 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="F403" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -14232,13 +14196,13 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F404" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="G404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -14261,10 +14225,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F405" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14290,10 +14254,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F406" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14319,18 +14283,47 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="F407" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="G407" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
       </c>
       <c r="I407" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1</v>
+      </c>
+      <c r="D408" t="n">
+        <v>407</v>
+      </c>
+      <c r="E408" t="s">
+        <v>706</v>
+      </c>
+      <c r="F408" t="s">
+        <v>708</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1</v>
+      </c>
+      <c r="H408" t="s">
+        <v>4</v>
+      </c>
+      <c r="I408" t="n">
         <v>3</v>
       </c>
     </row>
